--- a/fichierInter2.xlsx
+++ b/fichierInter2.xlsx
@@ -7,12 +7,12 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Normal Semaine" sheetId="1" r:id="rId4"/>
-    <sheet name="2021-Normal Décade" sheetId="2" r:id="rId5"/>
-    <sheet name="2021-Défavorable Semaine" sheetId="3" r:id="rId6"/>
-    <sheet name="2021-Défavorable Décade" sheetId="4" r:id="rId7"/>
-    <sheet name="2021-Favorable Semaine" sheetId="5" r:id="rId8"/>
-    <sheet name="2021-Favorable Décade" sheetId="6" r:id="rId9"/>
+    <sheet name="2020-Normal Semaine" sheetId="1" r:id="rId4"/>
+    <sheet name="2020-Normal Décade" sheetId="2" r:id="rId5"/>
+    <sheet name="2020-Défavorable Semaine" sheetId="3" r:id="rId6"/>
+    <sheet name="2020-Défavorable Décade" sheetId="4" r:id="rId7"/>
+    <sheet name="2020-Favorable Semaine" sheetId="5" r:id="rId8"/>
+    <sheet name="2020-Favorable Décade" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -37,163 +37,163 @@
     <t>Date début semaine</t>
   </si>
   <si>
-    <t>Potentiel de pousse_2021-Normal</t>
-  </si>
-  <si>
-    <t>07/01/2021</t>
-  </si>
-  <si>
-    <t>14/01/2021</t>
-  </si>
-  <si>
-    <t>21/01/2021</t>
-  </si>
-  <si>
-    <t>28/01/2021</t>
-  </si>
-  <si>
-    <t>04/02/2021</t>
-  </si>
-  <si>
-    <t>11/02/2021</t>
-  </si>
-  <si>
-    <t>18/02/2021</t>
-  </si>
-  <si>
-    <t>25/02/2021</t>
-  </si>
-  <si>
-    <t>04/03/2021</t>
-  </si>
-  <si>
-    <t>11/03/2021</t>
-  </si>
-  <si>
-    <t>18/03/2021</t>
-  </si>
-  <si>
-    <t>25/03/2021</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>08/04/2021</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>22/04/2021</t>
-  </si>
-  <si>
-    <t>29/04/2021</t>
-  </si>
-  <si>
-    <t>06/05/2021</t>
-  </si>
-  <si>
-    <t>13/05/2021</t>
-  </si>
-  <si>
-    <t>20/05/2021</t>
-  </si>
-  <si>
-    <t>27/05/2021</t>
-  </si>
-  <si>
-    <t>03/06/2021</t>
-  </si>
-  <si>
-    <t>10/06/2021</t>
-  </si>
-  <si>
-    <t>17/06/2021</t>
-  </si>
-  <si>
-    <t>24/06/2021</t>
-  </si>
-  <si>
-    <t>01/07/2021</t>
-  </si>
-  <si>
-    <t>08/07/2021</t>
-  </si>
-  <si>
-    <t>15/07/2021</t>
-  </si>
-  <si>
-    <t>22/07/2021</t>
-  </si>
-  <si>
-    <t>29/07/2021</t>
-  </si>
-  <si>
-    <t>05/08/2021</t>
-  </si>
-  <si>
-    <t>12/08/2021</t>
-  </si>
-  <si>
-    <t>19/08/2021</t>
-  </si>
-  <si>
-    <t>26/08/2021</t>
-  </si>
-  <si>
-    <t>02/09/2021</t>
-  </si>
-  <si>
-    <t>09/09/2021</t>
-  </si>
-  <si>
-    <t>16/09/2021</t>
-  </si>
-  <si>
-    <t>23/09/2021</t>
-  </si>
-  <si>
-    <t>30/09/2021</t>
-  </si>
-  <si>
-    <t>07/10/2021</t>
-  </si>
-  <si>
-    <t>14/10/2021</t>
-  </si>
-  <si>
-    <t>21/10/2021</t>
-  </si>
-  <si>
-    <t>28/10/2021</t>
-  </si>
-  <si>
-    <t>04/11/2021</t>
-  </si>
-  <si>
-    <t>11/11/2021</t>
-  </si>
-  <si>
-    <t>18/11/2021</t>
-  </si>
-  <si>
-    <t>25/11/2021</t>
-  </si>
-  <si>
-    <t>02/12/2021</t>
-  </si>
-  <si>
-    <t>09/12/2021</t>
-  </si>
-  <si>
-    <t>16/12/2021</t>
-  </si>
-  <si>
-    <t>23/12/2021</t>
-  </si>
-  <si>
-    <t>30/12/2021</t>
+    <t>Potentiel de pousse_2020-Normal</t>
+  </si>
+  <si>
+    <t>07/01/2020</t>
+  </si>
+  <si>
+    <t>14/01/2020</t>
+  </si>
+  <si>
+    <t>21/01/2020</t>
+  </si>
+  <si>
+    <t>28/01/2020</t>
+  </si>
+  <si>
+    <t>04/02/2020</t>
+  </si>
+  <si>
+    <t>11/02/2020</t>
+  </si>
+  <si>
+    <t>18/02/2020</t>
+  </si>
+  <si>
+    <t>25/02/2020</t>
+  </si>
+  <si>
+    <t>03/03/2020</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>17/03/2020</t>
+  </si>
+  <si>
+    <t>24/03/2020</t>
+  </si>
+  <si>
+    <t>31/03/2020</t>
+  </si>
+  <si>
+    <t>07/04/2020</t>
+  </si>
+  <si>
+    <t>14/04/2020</t>
+  </si>
+  <si>
+    <t>21/04/2020</t>
+  </si>
+  <si>
+    <t>28/04/2020</t>
+  </si>
+  <si>
+    <t>05/05/2020</t>
+  </si>
+  <si>
+    <t>12/05/2020</t>
+  </si>
+  <si>
+    <t>19/05/2020</t>
+  </si>
+  <si>
+    <t>26/05/2020</t>
+  </si>
+  <si>
+    <t>02/06/2020</t>
+  </si>
+  <si>
+    <t>09/06/2020</t>
+  </si>
+  <si>
+    <t>16/06/2020</t>
+  </si>
+  <si>
+    <t>23/06/2020</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>07/07/2020</t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>04/08/2020</t>
+  </si>
+  <si>
+    <t>11/08/2020</t>
+  </si>
+  <si>
+    <t>18/08/2020</t>
+  </si>
+  <si>
+    <t>25/08/2020</t>
+  </si>
+  <si>
+    <t>01/09/2020</t>
+  </si>
+  <si>
+    <t>08/09/2020</t>
+  </si>
+  <si>
+    <t>15/09/2020</t>
+  </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>06/10/2020</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>03/11/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
+  <si>
+    <t>17/11/2020</t>
+  </si>
+  <si>
+    <t>24/11/2020</t>
+  </si>
+  <si>
+    <t>01/12/2020</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>15/12/2020</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>29/12/2020</t>
   </si>
   <si>
     <t>Numéro de la décade</t>
@@ -202,103 +202,103 @@
     <t>Date début décade</t>
   </si>
   <si>
-    <t>10/01/2021</t>
-  </si>
-  <si>
-    <t>20/01/2021</t>
-  </si>
-  <si>
-    <t>30/01/2021</t>
-  </si>
-  <si>
-    <t>09/02/2021</t>
-  </si>
-  <si>
-    <t>19/02/2021</t>
-  </si>
-  <si>
-    <t>01/03/2021</t>
-  </si>
-  <si>
-    <t>21/03/2021</t>
-  </si>
-  <si>
-    <t>31/03/2021</t>
-  </si>
-  <si>
-    <t>10/04/2021</t>
-  </si>
-  <si>
-    <t>20/04/2021</t>
-  </si>
-  <si>
-    <t>30/04/2021</t>
-  </si>
-  <si>
-    <t>10/05/2021</t>
-  </si>
-  <si>
-    <t>30/05/2021</t>
-  </si>
-  <si>
-    <t>09/06/2021</t>
-  </si>
-  <si>
-    <t>19/06/2021</t>
-  </si>
-  <si>
-    <t>29/06/2021</t>
-  </si>
-  <si>
-    <t>09/07/2021</t>
-  </si>
-  <si>
-    <t>19/07/2021</t>
-  </si>
-  <si>
-    <t>08/08/2021</t>
-  </si>
-  <si>
-    <t>18/08/2021</t>
-  </si>
-  <si>
-    <t>28/08/2021</t>
-  </si>
-  <si>
-    <t>07/09/2021</t>
-  </si>
-  <si>
-    <t>17/09/2021</t>
-  </si>
-  <si>
-    <t>27/09/2021</t>
-  </si>
-  <si>
-    <t>17/10/2021</t>
-  </si>
-  <si>
-    <t>27/10/2021</t>
-  </si>
-  <si>
-    <t>06/11/2021</t>
-  </si>
-  <si>
-    <t>16/11/2021</t>
-  </si>
-  <si>
-    <t>26/11/2021</t>
-  </si>
-  <si>
-    <t>06/12/2021</t>
-  </si>
-  <si>
-    <t>26/12/2021</t>
-  </si>
-  <si>
-    <t>Potentiel de pousse_2021-Défavorable</t>
-  </si>
-  <si>
-    <t>Potentiel de pousse_2021-Favorable</t>
+    <t>10/01/2020</t>
+  </si>
+  <si>
+    <t>20/01/2020</t>
+  </si>
+  <si>
+    <t>30/01/2020</t>
+  </si>
+  <si>
+    <t>09/02/2020</t>
+  </si>
+  <si>
+    <t>19/02/2020</t>
+  </si>
+  <si>
+    <t>29/02/2020</t>
+  </si>
+  <si>
+    <t>20/03/2020</t>
+  </si>
+  <si>
+    <t>30/03/2020</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>19/04/2020</t>
+  </si>
+  <si>
+    <t>29/04/2020</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t>29/05/2020</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>18/06/2020</t>
+  </si>
+  <si>
+    <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>08/07/2020</t>
+  </si>
+  <si>
+    <t>18/07/2020</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>17/08/2020</t>
+  </si>
+  <si>
+    <t>27/08/2020</t>
+  </si>
+  <si>
+    <t>06/09/2020</t>
+  </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>26/09/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>15/11/2020</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
+  </si>
+  <si>
+    <t>05/12/2020</t>
+  </si>
+  <si>
+    <t>25/12/2020</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2020-Défavorable</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2020-Favorable</t>
   </si>
 </sst>
 </file>
@@ -798,8 +798,12 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>3.98</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -812,10 +816,10 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>20.14</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -828,8 +832,12 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>44.39</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -842,10 +850,10 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>42.41</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -859,10 +867,10 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>45.09</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -876,10 +884,10 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>10.12</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -893,10 +901,10 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>24.43</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -910,10 +918,10 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>8.33</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -927,10 +935,10 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>57.14</v>
+        <v>43.45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -947,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="E20">
-        <v>47.02</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -961,10 +969,10 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>30.95</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -978,10 +986,10 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>77.78</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -995,10 +1003,10 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>77.35</v>
+        <v>35.42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1012,10 +1020,10 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>40.0</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1029,10 +1037,10 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>10.71</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1046,10 +1054,10 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>39.29</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1063,10 +1071,10 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>51.19</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1080,10 +1088,10 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>17.86</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1097,10 +1105,10 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>26.02</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1114,10 +1122,10 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>26.04</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1561,8 +1569,12 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>3.98</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -1575,10 +1587,10 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>20.14</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1592,10 +1604,10 @@
         <v>67</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>42.41</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1609,10 +1621,10 @@
         <v>68</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>27.61</v>
+        <v>46.53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1626,10 +1638,10 @@
         <v>69</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>24.43</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1643,10 +1655,10 @@
         <v>70</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>8.33</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1660,10 +1672,10 @@
         <v>71</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>52.08</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1677,10 +1689,10 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>30.95</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1694,10 +1706,10 @@
         <v>72</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>77.78</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1711,10 +1723,10 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>58.68</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1731,7 +1743,7 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>25.0</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1745,10 +1757,10 @@
         <v>75</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>51.19</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1762,10 +1774,10 @@
         <v>76</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>21.94</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1779,10 +1791,10 @@
         <v>77</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>26.04</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2174,8 +2186,12 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3.13</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -2191,7 +2207,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>12.5</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2204,8 +2220,12 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>44.64</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -2218,10 +2238,10 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2234,12 +2254,8 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>34.38</v>
-      </c>
+      <c r="D15"/>
+      <c r="E15"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -2251,8 +2267,12 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -2265,10 +2285,10 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>19.32</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2285,7 +2305,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>9.72</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2299,10 +2319,10 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>47.32</v>
+        <v>39.28</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2315,8 +2335,12 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>29.17</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
@@ -2332,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>57.15</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2349,7 +2373,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>77.08</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2363,10 +2387,10 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>20.32</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2379,12 +2403,8 @@
       <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>35.0</v>
-      </c>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -2400,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="E25">
-        <v>0.0</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2414,10 +2434,10 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>35.42</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2431,10 +2451,10 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>14.29</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2448,10 +2468,10 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0.0</v>
+        <v>85.42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2465,10 +2485,10 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>55.36</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2482,10 +2502,10 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>42.71</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2929,8 +2949,12 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3.13</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -2943,10 +2967,10 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2960,10 +2984,10 @@
         <v>67</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2977,10 +3001,10 @@
         <v>68</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>34.38</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2994,10 +3018,10 @@
         <v>69</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>19.32</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3014,7 +3038,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>9.72</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3028,10 +3052,10 @@
         <v>71</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>47.32</v>
+        <v>34.23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3048,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>57.15</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3062,10 +3086,10 @@
         <v>72</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>77.08</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3078,12 +3102,8 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>27.66</v>
-      </c>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -3096,10 +3116,10 @@
         <v>74</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>17.71</v>
+        <v>15.03</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3113,10 +3133,10 @@
         <v>75</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>14.29</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3130,10 +3150,10 @@
         <v>76</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>27.68</v>
+        <v>85.42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3150,7 +3170,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>42.71</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3542,8 +3562,12 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11"/>
-      <c r="E11"/>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -3559,7 +3583,7 @@
         <v>2</v>
       </c>
       <c r="E12">
-        <v>3.13</v>
+        <v>52.09</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3572,8 +3596,12 @@
       <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>69.64</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -3599,10 +3627,10 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>21.88</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3619,7 +3647,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>8.34</v>
+        <v>42.86</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3633,10 +3661,10 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>18.18</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3649,8 +3677,12 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>39.29</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -3663,10 +3695,10 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>26.79</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3683,7 +3715,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>53.57</v>
+        <v>172.92</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3696,12 +3728,8 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>30.36</v>
-      </c>
+      <c r="D21"/>
+      <c r="E21"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
@@ -3713,8 +3741,12 @@
       <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
@@ -3726,8 +3758,12 @@
       <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8.33</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
@@ -3740,10 +3776,10 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>12.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3756,12 +3792,8 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>21.43</v>
-      </c>
+      <c r="D25"/>
+      <c r="E25"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
@@ -3790,7 +3822,7 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3807,7 +3839,7 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>89.13</v>
+        <v>70.84</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3820,8 +3852,12 @@
       <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D29"/>
-      <c r="E29"/>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
@@ -3833,12 +3869,8 @@
       <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>3.13</v>
-      </c>
+      <c r="D30"/>
+      <c r="E30"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
@@ -4281,8 +4313,12 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -4295,10 +4331,10 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>3.13</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4325,10 +4361,10 @@
         <v>68</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>15.11</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4342,10 +4378,10 @@
         <v>69</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>18.18</v>
+        <v>46.43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4358,8 +4394,12 @@
       <c r="C13" t="s">
         <v>70</v>
       </c>
-      <c r="D13"/>
-      <c r="E13"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>39.29</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -4372,10 +4412,10 @@
         <v>71</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>40.18</v>
+        <v>115.03</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4388,12 +4428,8 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>30.36</v>
-      </c>
+      <c r="D15"/>
+      <c r="E15"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -4405,8 +4441,12 @@
       <c r="C16" t="s">
         <v>72</v>
       </c>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4.17</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
@@ -4419,10 +4459,10 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>12.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4435,12 +4475,8 @@
       <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>21.43</v>
-      </c>
+      <c r="D18"/>
+      <c r="E18"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
@@ -4456,7 +4492,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4473,7 +4509,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>89.13</v>
+        <v>70.84</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4490,7 +4526,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>3.13</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="22" spans="1:6">

--- a/fichierInter2.xlsx
+++ b/fichierInter2.xlsx
@@ -7,8 +7,14 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Non connue Semaine" sheetId="1" r:id="rId4"/>
-    <sheet name="2020-Non connue Décade" sheetId="2" r:id="rId5"/>
+    <sheet name="2020-Normal Semaine" sheetId="1" r:id="rId4"/>
+    <sheet name="2020-Normal Décade" sheetId="2" r:id="rId5"/>
+    <sheet name="2020-Défavorable Semaine" sheetId="3" r:id="rId6"/>
+    <sheet name="2020-Défavorable Décade" sheetId="4" r:id="rId7"/>
+    <sheet name="2020-Favorable Semaine" sheetId="5" r:id="rId8"/>
+    <sheet name="2020-Favorable Décade" sheetId="6" r:id="rId9"/>
+    <sheet name="Worksheet Semaine" sheetId="7" r:id="rId10"/>
+    <sheet name="Worksheet Décade" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>Caractéristique</t>
   </si>
@@ -33,7 +39,7 @@
     <t>Date début semaine</t>
   </si>
   <si>
-    <t>Hydromorphie Sol_2020-Non connue</t>
+    <t>Potentiel de pousse_2020-Normal</t>
   </si>
   <si>
     <t>07/01/2020</t>
@@ -289,6 +295,12 @@
   </si>
   <si>
     <t>25/12/2020</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2020-Défavorable</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2020-Favorable</t>
   </si>
 </sst>
 </file>
@@ -789,10 +801,10 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -806,10 +818,10 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>30.21</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -823,10 +835,10 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>48.35</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -840,10 +852,10 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>36.04</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -857,10 +869,10 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>27.27</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -874,10 +886,10 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>53.57</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -891,10 +903,10 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>37.01</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -908,10 +920,10 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>29.29</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -925,10 +937,10 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>43.57</v>
+        <v>43.45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -942,10 +954,10 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>73.26</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -959,10 +971,10 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>43.61</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -976,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0.0</v>
@@ -993,10 +1005,10 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>21.53</v>
+        <v>35.42</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1010,10 +1022,10 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>9.37</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1027,10 +1039,10 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>10.71</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1044,10 +1056,10 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>24.48</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1061,10 +1073,10 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>57.5</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1078,10 +1090,10 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>59.72</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1095,10 +1107,10 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>24.11</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1112,7 +1124,7 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0.0</v>
@@ -1560,10 +1572,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>3.31</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1577,10 +1589,10 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>39.28</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1594,10 +1606,10 @@
         <v>67</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>36.04</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1611,10 +1623,10 @@
         <v>68</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>40.42</v>
+        <v>46.53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1628,10 +1640,10 @@
         <v>69</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>37.01</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1645,10 +1657,10 @@
         <v>70</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>29.29</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1662,10 +1674,10 @@
         <v>71</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>58.42</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1679,10 +1691,10 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>43.61</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1696,10 +1708,10 @@
         <v>72</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>10.77</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1713,10 +1725,10 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>9.37</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1730,10 +1742,10 @@
         <v>74</v>
       </c>
       <c r="D18">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>17.6</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1747,10 +1759,10 @@
         <v>75</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>57.5</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1764,10 +1776,10 @@
         <v>76</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>59.72</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1781,10 +1793,10 @@
         <v>77</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>12.06</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1994,6 +2006,2806 @@
       </c>
       <c r="D37"/>
       <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>44.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>85.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>34.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>85.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>52.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>46.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>172.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>46.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>115.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/fichierInter2.xlsx
+++ b/fichierInter2.xlsx
@@ -9,12 +9,16 @@
   <sheets>
     <sheet name="2020-Normal Semaine" sheetId="1" r:id="rId4"/>
     <sheet name="2020-Normal Décade" sheetId="2" r:id="rId5"/>
-    <sheet name="2020-Défavorable Semaine" sheetId="3" r:id="rId6"/>
-    <sheet name="2020-Défavorable Décade" sheetId="4" r:id="rId7"/>
-    <sheet name="2020-Favorable Semaine" sheetId="5" r:id="rId8"/>
-    <sheet name="2020-Favorable Décade" sheetId="6" r:id="rId9"/>
-    <sheet name="Worksheet Semaine" sheetId="7" r:id="rId10"/>
-    <sheet name="Worksheet Décade" sheetId="8" r:id="rId11"/>
+    <sheet name="2021-Normal Semaine" sheetId="3" r:id="rId6"/>
+    <sheet name="2021-Normal Décade" sheetId="4" r:id="rId7"/>
+    <sheet name="2020-Défavorable Semaine" sheetId="5" r:id="rId8"/>
+    <sheet name="2020-Défavorable Décade" sheetId="6" r:id="rId9"/>
+    <sheet name="2021-Défavorable Semaine" sheetId="7" r:id="rId10"/>
+    <sheet name="2021-Défavorable Décade" sheetId="8" r:id="rId11"/>
+    <sheet name="2020-Favorable Semaine" sheetId="9" r:id="rId12"/>
+    <sheet name="2020-Favorable Décade" sheetId="10" r:id="rId13"/>
+    <sheet name="2021-Favorable Semaine" sheetId="11" r:id="rId14"/>
+    <sheet name="2021-Favorable Décade" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>Caractéristique</t>
   </si>
@@ -297,10 +301,268 @@
     <t>25/12/2020</t>
   </si>
   <si>
+    <t>Potentiel de pousse_2021-Normal</t>
+  </si>
+  <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>14/01/2021</t>
+  </si>
+  <si>
+    <t>21/01/2021</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>11/02/2021</t>
+  </si>
+  <si>
+    <t>18/02/2021</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t>04/03/2021</t>
+  </si>
+  <si>
+    <t>11/03/2021</t>
+  </si>
+  <si>
+    <t>18/03/2021</t>
+  </si>
+  <si>
+    <t>25/03/2021</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>08/04/2021</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>22/04/2021</t>
+  </si>
+  <si>
+    <t>29/04/2021</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>13/05/2021</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
+  </si>
+  <si>
+    <t>27/05/2021</t>
+  </si>
+  <si>
+    <t>03/06/2021</t>
+  </si>
+  <si>
+    <t>10/06/2021</t>
+  </si>
+  <si>
+    <t>17/06/2021</t>
+  </si>
+  <si>
+    <t>24/06/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>22/07/2021</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
+  </si>
+  <si>
+    <t>05/08/2021</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>19/08/2021</t>
+  </si>
+  <si>
+    <t>26/08/2021</t>
+  </si>
+  <si>
+    <t>02/09/2021</t>
+  </si>
+  <si>
+    <t>09/09/2021</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>23/09/2021</t>
+  </si>
+  <si>
+    <t>30/09/2021</t>
+  </si>
+  <si>
+    <t>07/10/2021</t>
+  </si>
+  <si>
+    <t>14/10/2021</t>
+  </si>
+  <si>
+    <t>21/10/2021</t>
+  </si>
+  <si>
+    <t>28/10/2021</t>
+  </si>
+  <si>
+    <t>04/11/2021</t>
+  </si>
+  <si>
+    <t>11/11/2021</t>
+  </si>
+  <si>
+    <t>18/11/2021</t>
+  </si>
+  <si>
+    <t>25/11/2021</t>
+  </si>
+  <si>
+    <t>02/12/2021</t>
+  </si>
+  <si>
+    <t>09/12/2021</t>
+  </si>
+  <si>
+    <t>16/12/2021</t>
+  </si>
+  <si>
+    <t>23/12/2021</t>
+  </si>
+  <si>
+    <t>30/12/2021</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>30/01/2021</t>
+  </si>
+  <si>
+    <t>09/02/2021</t>
+  </si>
+  <si>
+    <t>19/02/2021</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>21/03/2021</t>
+  </si>
+  <si>
+    <t>31/03/2021</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t>20/04/2021</t>
+  </si>
+  <si>
+    <t>30/04/2021</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>30/05/2021</t>
+  </si>
+  <si>
+    <t>09/06/2021</t>
+  </si>
+  <si>
+    <t>19/06/2021</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>19/07/2021</t>
+  </si>
+  <si>
+    <t>08/08/2021</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>28/08/2021</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>17/09/2021</t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>27/10/2021</t>
+  </si>
+  <si>
+    <t>06/11/2021</t>
+  </si>
+  <si>
+    <t>16/11/2021</t>
+  </si>
+  <si>
+    <t>26/11/2021</t>
+  </si>
+  <si>
+    <t>06/12/2021</t>
+  </si>
+  <si>
+    <t>26/12/2021</t>
+  </si>
+  <si>
     <t>Potentiel de pousse_2020-Défavorable</t>
   </si>
   <si>
+    <t>Potentiel de pousse_2021-Défavorable</t>
+  </si>
+  <si>
     <t>Potentiel de pousse_2020-Favorable</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2021-Favorable</t>
   </si>
 </sst>
 </file>
@@ -1445,6 +1707,1912 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>46.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>115.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>53.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>40.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -2069,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2082,7 +4250,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -2095,7 +4263,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2108,7 +4276,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -2121,7 +4289,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2134,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -2147,7 +4315,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -2160,7 +4328,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -2173,7 +4341,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -2186,14 +4354,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>3.13</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
@@ -2203,13 +4367,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>23.96</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2220,14 +4384,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>44.64</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
@@ -2237,13 +4397,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>25.0</v>
+        <v>42.41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2254,10 +4414,14 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>45.09</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
@@ -2267,13 +4431,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E16">
-        <v>37.5</v>
+        <v>10.12</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2284,13 +4448,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>16.67</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2301,13 +4465,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>21.43</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2318,13 +4482,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>39.28</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2335,13 +4499,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>29.17</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2352,13 +4516,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>29.17</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2369,13 +4533,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2386,13 +4550,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>16.67</v>
+        <v>77.35</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2403,10 +4567,14 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
@@ -2416,13 +4584,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>7.14</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2433,13 +4601,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>22.92</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2450,13 +4618,13 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
-        <v>63.89</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2467,13 +4635,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>85.42</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2484,13 +4652,13 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>22.92</v>
+        <v>26.02</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2501,13 +4669,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>0.0</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2518,7 +4686,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -2531,7 +4699,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -2544,7 +4712,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -2557,7 +4725,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -2570,7 +4738,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -2583,7 +4751,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -2596,7 +4764,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -2609,7 +4777,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -2622,7 +4790,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -2635,7 +4803,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -2648,7 +4816,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -2661,7 +4829,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -2674,7 +4842,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2687,7 +4855,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2700,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2713,7 +4881,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2726,7 +4894,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2739,7 +4907,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2752,7 +4920,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2765,7 +4933,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2778,7 +4946,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2791,7 +4959,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2804,7 +4972,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2871,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2884,7 +5052,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -2897,7 +5065,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2910,7 +5078,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -2923,7 +5091,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2936,7 +5104,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -2949,14 +5117,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>3.13</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
@@ -2966,13 +5130,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>34.3</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2983,13 +5147,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>25.0</v>
+        <v>42.41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3000,13 +5164,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>37.5</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3017,13 +5181,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>16.67</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3034,13 +5198,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>21.43</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3051,13 +5215,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>34.23</v>
+        <v>52.08</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3068,13 +5232,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>29.17</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3085,13 +5249,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>8.34</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3102,10 +5266,14 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>58.68</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
@@ -3115,13 +5283,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>15.03</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3132,13 +5300,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>63.89</v>
+        <v>51.19</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3149,13 +5317,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>85.42</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3166,13 +5334,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>11.46</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3183,7 +5351,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3196,7 +5364,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -3209,7 +5377,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3222,7 +5390,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -3235,7 +5403,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -3248,7 +5416,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -3261,7 +5429,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -3274,7 +5442,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -3287,7 +5455,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -3300,7 +5468,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -3313,7 +5481,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -3326,7 +5494,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -3339,7 +5507,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -3352,7 +5520,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -3365,7 +5533,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3378,7 +5546,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -3439,7 +5607,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3452,7 +5620,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3465,7 +5633,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3478,7 +5646,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3491,7 +5659,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3504,7 +5672,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3517,7 +5685,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3530,7 +5698,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3543,7 +5711,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3556,7 +5724,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3565,15 +5733,15 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3582,15 +5750,15 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>52.09</v>
+        <v>23.96</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3599,15 +5767,15 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>69.64</v>
+        <v>44.64</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3615,12 +5783,16 @@
       <c r="C14" t="s">
         <v>18</v>
       </c>
-      <c r="D14"/>
-      <c r="E14"/>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3628,16 +5800,12 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>12.5</v>
-      </c>
+      <c r="D15"/>
+      <c r="E15"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3649,12 +5817,12 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>42.86</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3663,15 +5831,15 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>46.43</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3680,15 +5848,15 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>39.29</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -3697,15 +5865,15 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>57.14</v>
+        <v>39.28</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3714,15 +5882,15 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20">
-        <v>172.92</v>
+        <v>29.17</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3730,12 +5898,16 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21"/>
-      <c r="E21"/>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>29.17</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3744,7 +5916,7 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>0.0</v>
@@ -3752,7 +5924,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3761,15 +5933,15 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>8.33</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3777,16 +5949,12 @@
       <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0.0</v>
-      </c>
+      <c r="D24"/>
+      <c r="E24"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3794,12 +5962,16 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>7.14</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3807,12 +5979,16 @@
       <c r="C26" t="s">
         <v>30</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>22.92</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3821,15 +5997,15 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>50.0</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3841,12 +6017,12 @@
         <v>2</v>
       </c>
       <c r="E28">
-        <v>70.84</v>
+        <v>85.42</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3855,15 +6031,15 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>37.5</v>
+        <v>22.92</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3871,12 +6047,16 @@
       <c r="C30" t="s">
         <v>34</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3889,7 +6069,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3902,7 +6082,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3915,7 +6095,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3928,7 +6108,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3941,7 +6121,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3954,7 +6134,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3967,7 +6147,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3980,7 +6160,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3993,7 +6173,7 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -4006,7 +6186,7 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -4019,7 +6199,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -4032,7 +6212,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -4045,7 +6225,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -4058,7 +6238,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -4071,7 +6251,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -4084,7 +6264,7 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -4097,7 +6277,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -4110,7 +6290,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -4123,7 +6303,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -4136,7 +6316,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -4149,7 +6329,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -4162,7 +6342,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -4229,7 +6409,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4242,7 +6422,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4255,7 +6435,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -4268,7 +6448,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -4281,7 +6461,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -4294,7 +6474,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -4307,7 +6487,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -4316,15 +6496,15 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -4333,15 +6513,15 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>60.87</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -4349,12 +6529,16 @@
       <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="D10"/>
-      <c r="E10"/>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -4363,15 +6547,15 @@
         <v>68</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>27.68</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -4380,15 +6564,15 @@
         <v>69</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>46.43</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -4397,15 +6581,15 @@
         <v>70</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>39.29</v>
+        <v>21.43</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -4414,15 +6598,15 @@
         <v>71</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>115.03</v>
+        <v>34.23</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -4430,12 +6614,16 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15"/>
-      <c r="E15"/>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>29.17</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -4444,15 +6632,15 @@
         <v>72</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>4.17</v>
+        <v>8.34</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -4460,16 +6648,12 @@
       <c r="C17" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>0.0</v>
-      </c>
+      <c r="D17"/>
+      <c r="E17"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -4477,12 +6661,16 @@
       <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="D18"/>
-      <c r="E18"/>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>15.03</v>
+      </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4491,15 +6679,15 @@
         <v>75</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>50.0</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -4511,12 +6699,12 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <v>70.84</v>
+        <v>85.42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -4525,15 +6713,15 @@
         <v>77</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>37.5</v>
+        <v>11.46</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -4546,7 +6734,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -4559,7 +6747,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -4572,7 +6760,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -4585,7 +6773,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -4598,7 +6786,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -4611,7 +6799,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -4624,7 +6812,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -4637,7 +6825,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -4650,7 +6838,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -4663,7 +6851,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -4676,7 +6864,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -4689,7 +6877,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -4702,7 +6890,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -4715,7 +6903,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -4728,7 +6916,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -4760,18 +6948,778 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>34.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>57.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>35.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>42.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -4794,18 +7742,1348 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>34.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>57.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>42.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>52.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>46.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>172.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/fichierInter2.xlsx
+++ b/fichierInter2.xlsx
@@ -902,7 +902,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,10 +915,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -948,7 +947,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -961,7 +960,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -974,7 +973,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -987,7 +986,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1000,7 +999,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1013,7 +1012,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1025,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1038,7 @@
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1051,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1068,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>28.33</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1102,7 @@
         <v>44.39</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>42.35</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>30.56</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>44.05</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1187,7 @@
         <v>30.79</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>43.45</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>69.45</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>47.22</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1255,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>11.72</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>11.91</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1340,7 @@
         <v>58.73</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>50.52</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1374,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1391,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1405,7 +1404,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1418,7 +1417,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1430,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1444,7 +1443,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1457,7 +1456,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1470,7 +1469,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1483,7 +1482,7 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1496,7 +1495,7 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +1508,7 @@
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1522,7 +1521,7 @@
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1534,7 @@
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1548,7 +1547,7 @@
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1560,7 @@
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1573,7 @@
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1587,7 +1586,7 @@
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1600,7 +1599,7 @@
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1612,7 @@
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1625,7 @@
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1639,7 +1638,7 @@
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1652,7 +1651,7 @@
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1664,7 @@
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1677,7 @@
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1712,7 +1711,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1725,10 +1724,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -1758,7 +1756,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -1771,7 +1769,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -1784,7 +1782,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -1797,7 +1795,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -1810,7 +1808,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -1823,7 +1821,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -1857,7 +1855,7 @@
         <v>60.87</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -1870,7 +1868,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -1887,7 +1885,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -1904,7 +1902,7 @@
         <v>46.43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -1921,7 +1919,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -1938,7 +1936,7 @@
         <v>115.03</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -1951,7 +1949,7 @@
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -1968,7 +1966,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -1998,7 +1996,7 @@
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -2015,7 +2013,7 @@
         <v>50.0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -2032,7 +2030,7 @@
         <v>70.84</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -2049,7 +2047,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -2062,7 +2060,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -2075,7 +2073,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -2088,7 +2086,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -2101,7 +2099,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -2114,7 +2112,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -2127,7 +2125,7 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -2140,7 +2138,7 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -2153,7 +2151,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>177</v>
       </c>
@@ -2166,7 +2164,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -2179,7 +2177,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -2192,7 +2190,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -2205,7 +2203,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -2218,7 +2216,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -2231,7 +2229,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -2244,7 +2242,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>177</v>
       </c>
@@ -2278,7 +2276,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,10 +2289,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -2324,7 +2321,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -2337,7 +2334,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2350,7 +2347,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -2363,7 +2360,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -2376,7 +2373,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -2389,7 +2386,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -2402,7 +2399,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -2415,7 +2412,7 @@
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -2428,7 +2425,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -2441,7 +2438,7 @@
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -2458,7 +2455,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -2471,7 +2468,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -2484,7 +2481,7 @@
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -2501,7 +2498,7 @@
         <v>21.88</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -2518,7 +2515,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -2535,7 +2532,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -2548,7 +2545,7 @@
       <c r="D18"/>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -2565,7 +2562,7 @@
         <v>26.79</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -2582,7 +2579,7 @@
         <v>53.57</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -2599,7 +2596,7 @@
         <v>30.36</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -2612,7 +2609,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -2625,7 +2622,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -2642,7 +2639,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -2659,7 +2656,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -2672,7 +2669,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -2706,7 +2703,7 @@
         <v>89.13</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -2719,7 +2716,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -2736,7 +2733,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -2749,7 +2746,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -2762,7 +2759,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -2775,7 +2772,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -2788,7 +2785,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -2801,7 +2798,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -2814,7 +2811,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -2827,7 +2824,7 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>178</v>
       </c>
@@ -2840,7 +2837,7 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>178</v>
       </c>
@@ -2853,7 +2850,7 @@
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>178</v>
       </c>
@@ -2866,7 +2863,7 @@
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -2879,7 +2876,7 @@
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -2892,7 +2889,7 @@
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>178</v>
       </c>
@@ -2905,7 +2902,7 @@
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -2918,7 +2915,7 @@
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -2931,7 +2928,7 @@
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -2944,7 +2941,7 @@
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -2957,7 +2954,7 @@
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -2970,7 +2967,7 @@
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -2983,7 +2980,7 @@
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>178</v>
       </c>
@@ -2996,7 +2993,7 @@
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>178</v>
       </c>
@@ -3009,7 +3006,7 @@
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>178</v>
       </c>
@@ -3022,7 +3019,7 @@
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -3056,7 +3053,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3069,10 +3066,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3089,7 +3085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>178</v>
       </c>
@@ -3102,7 +3098,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -3115,7 +3111,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -3128,7 +3124,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -3141,7 +3137,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -3154,7 +3150,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -3167,7 +3163,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>178</v>
       </c>
@@ -3180,7 +3176,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>178</v>
       </c>
@@ -3197,7 +3193,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -3210,7 +3206,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>178</v>
       </c>
@@ -3227,7 +3223,7 @@
         <v>15.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>178</v>
       </c>
@@ -3244,7 +3240,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -3257,7 +3253,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -3274,7 +3270,7 @@
         <v>40.18</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -3291,7 +3287,7 @@
         <v>30.36</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -3304,7 +3300,7 @@
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -3321,7 +3317,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -3338,7 +3334,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -3355,7 +3351,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3372,7 +3368,7 @@
         <v>89.13</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -3389,7 +3385,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -3402,7 +3398,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -3415,7 +3411,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -3428,7 +3424,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -3441,7 +3437,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>178</v>
       </c>
@@ -3454,7 +3450,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -3467,7 +3463,7 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -3480,7 +3476,7 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -3493,7 +3489,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -3506,7 +3502,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -3519,7 +3515,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -3532,7 +3528,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -3545,7 +3541,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -3558,7 +3554,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -3571,7 +3567,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -3584,7 +3580,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>178</v>
       </c>
@@ -3618,7 +3614,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -3631,10 +3627,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3651,7 +3646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3664,7 +3659,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -3677,7 +3672,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3690,7 +3685,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3698,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3716,7 +3711,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3724,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3746,7 +3741,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>36.36</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -3780,7 +3775,7 @@
         <v>42.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3797,7 +3792,7 @@
         <v>46.53</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -3814,7 +3809,7 @@
         <v>44.05</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -3831,7 +3826,7 @@
         <v>30.79</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -3848,7 +3843,7 @@
         <v>56.45</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -3865,7 +3860,7 @@
         <v>47.22</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -3882,7 +3877,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3899,7 +3894,7 @@
         <v>11.72</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -3916,7 +3911,7 @@
         <v>18.98</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -3933,7 +3928,7 @@
         <v>58.73</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -3950,7 +3945,7 @@
         <v>50.52</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +3962,7 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -3980,7 +3975,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3993,7 +3988,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -4006,7 +4001,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -4019,7 +4014,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -4032,7 +4027,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -4045,7 +4040,7 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -4058,7 +4053,7 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4066,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -4084,7 +4079,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -4097,7 +4092,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -4110,7 +4105,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -4123,7 +4118,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -4136,7 +4131,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -4149,7 +4144,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -4162,7 +4157,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -4196,7 +4191,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -4209,10 +4204,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4229,7 +4223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -4242,7 +4236,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -4255,7 +4249,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -4268,7 +4262,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -4281,7 +4275,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -4294,7 +4288,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -4307,7 +4301,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -4320,7 +4314,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -4333,7 +4327,7 @@
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -4346,7 +4340,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -4359,7 +4353,7 @@
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4376,7 +4370,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -4389,7 +4383,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -4406,7 +4400,7 @@
         <v>42.41</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -4423,7 +4417,7 @@
         <v>45.09</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -4440,7 +4434,7 @@
         <v>10.12</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -4457,7 +4451,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -4474,7 +4468,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -4491,7 +4485,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -4508,7 +4502,7 @@
         <v>47.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -4525,7 +4519,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -4542,7 +4536,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -4559,7 +4553,7 @@
         <v>77.35</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -4576,7 +4570,7 @@
         <v>40.0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -4593,7 +4587,7 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -4610,7 +4604,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -4627,7 +4621,7 @@
         <v>51.19</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -4644,7 +4638,7 @@
         <v>17.86</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -4661,7 +4655,7 @@
         <v>26.02</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -4678,7 +4672,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -4691,7 +4685,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -4704,7 +4698,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -4717,7 +4711,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -4730,7 +4724,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -4743,7 +4737,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -4756,7 +4750,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -4769,7 +4763,7 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>91</v>
       </c>
@@ -4782,7 +4776,7 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -4795,7 +4789,7 @@
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -4808,7 +4802,7 @@
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>91</v>
       </c>
@@ -4821,7 +4815,7 @@
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -4834,7 +4828,7 @@
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -4847,7 +4841,7 @@
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -4860,7 +4854,7 @@
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -4873,7 +4867,7 @@
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -4886,7 +4880,7 @@
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -4899,7 +4893,7 @@
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -4912,7 +4906,7 @@
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -4925,7 +4919,7 @@
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -4938,7 +4932,7 @@
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -4951,7 +4945,7 @@
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>91</v>
       </c>
@@ -4964,7 +4958,7 @@
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>91</v>
       </c>
@@ -4998,7 +4992,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5011,10 +5005,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5031,7 +5024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -5044,7 +5037,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -5057,7 +5050,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -5070,7 +5063,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -5083,7 +5076,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -5096,7 +5089,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>91</v>
       </c>
@@ -5109,7 +5102,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -5122,7 +5115,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>91</v>
       </c>
@@ -5139,7 +5132,7 @@
         <v>20.14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -5156,7 +5149,7 @@
         <v>42.41</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -5173,7 +5166,7 @@
         <v>27.61</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -5190,7 +5183,7 @@
         <v>24.43</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -5207,7 +5200,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -5224,7 +5217,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -5241,7 +5234,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>91</v>
       </c>
@@ -5258,7 +5251,7 @@
         <v>77.78</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -5275,7 +5268,7 @@
         <v>58.68</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -5292,7 +5285,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -5309,7 +5302,7 @@
         <v>51.19</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>91</v>
       </c>
@@ -5326,7 +5319,7 @@
         <v>21.94</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -5343,7 +5336,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>91</v>
       </c>
@@ -5356,7 +5349,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>91</v>
       </c>
@@ -5369,7 +5362,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -5382,7 +5375,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -5395,7 +5388,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -5408,7 +5401,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -5421,7 +5414,7 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -5434,7 +5427,7 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>91</v>
       </c>
@@ -5447,7 +5440,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -5460,7 +5453,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>91</v>
       </c>
@@ -5473,7 +5466,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -5486,7 +5479,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>91</v>
       </c>
@@ -5499,7 +5492,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>91</v>
       </c>
@@ -5512,7 +5505,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -5525,7 +5518,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5538,7 +5531,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -5572,7 +5565,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5585,10 +5578,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5605,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -5618,7 +5610,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -5631,7 +5623,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -5644,7 +5636,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -5657,7 +5649,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -5670,7 +5662,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -5683,7 +5675,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -5696,7 +5688,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -5709,7 +5701,7 @@
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -5722,7 +5714,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -5739,7 +5731,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -5756,7 +5748,7 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -5773,7 +5765,7 @@
         <v>44.64</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -5790,7 +5782,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -5803,7 +5795,7 @@
       <c r="D15"/>
       <c r="E15"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -5820,7 +5812,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -5837,7 +5829,7 @@
         <v>16.67</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -5854,7 +5846,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -5871,7 +5863,7 @@
         <v>39.28</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -5888,7 +5880,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -5905,7 +5897,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -5922,7 +5914,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -5939,7 +5931,7 @@
         <v>16.67</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -5952,7 +5944,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -5969,7 +5961,7 @@
         <v>7.14</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -5986,7 +5978,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -6003,7 +5995,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -6020,7 +6012,7 @@
         <v>85.42</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -6037,7 +6029,7 @@
         <v>22.92</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -6054,7 +6046,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -6067,7 +6059,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -6080,7 +6072,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -6093,7 +6085,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -6106,7 +6098,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -6119,7 +6111,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -6132,7 +6124,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>175</v>
       </c>
@@ -6145,7 +6137,7 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -6158,7 +6150,7 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>175</v>
       </c>
@@ -6171,7 +6163,7 @@
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>175</v>
       </c>
@@ -6184,7 +6176,7 @@
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -6197,7 +6189,7 @@
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>175</v>
       </c>
@@ -6210,7 +6202,7 @@
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>175</v>
       </c>
@@ -6223,7 +6215,7 @@
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>175</v>
       </c>
@@ -6236,7 +6228,7 @@
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -6249,7 +6241,7 @@
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>175</v>
       </c>
@@ -6262,7 +6254,7 @@
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -6275,7 +6267,7 @@
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>175</v>
       </c>
@@ -6288,7 +6280,7 @@
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>175</v>
       </c>
@@ -6301,7 +6293,7 @@
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>175</v>
       </c>
@@ -6314,7 +6306,7 @@
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>175</v>
       </c>
@@ -6327,7 +6319,7 @@
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>175</v>
       </c>
@@ -6340,7 +6332,7 @@
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>175</v>
       </c>
@@ -6374,7 +6366,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6387,10 +6379,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6407,7 +6398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -6420,7 +6411,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>175</v>
       </c>
@@ -6433,7 +6424,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -6446,7 +6437,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>175</v>
       </c>
@@ -6459,7 +6450,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>175</v>
       </c>
@@ -6472,7 +6463,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>175</v>
       </c>
@@ -6485,7 +6476,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>175</v>
       </c>
@@ -6502,7 +6493,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>175</v>
       </c>
@@ -6519,7 +6510,7 @@
         <v>34.3</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -6536,7 +6527,7 @@
         <v>25.0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -6553,7 +6544,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>175</v>
       </c>
@@ -6570,7 +6561,7 @@
         <v>16.67</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -6587,7 +6578,7 @@
         <v>21.43</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -6604,7 +6595,7 @@
         <v>34.23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>175</v>
       </c>
@@ -6621,7 +6612,7 @@
         <v>29.17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>175</v>
       </c>
@@ -6638,7 +6629,7 @@
         <v>8.34</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>175</v>
       </c>
@@ -6651,7 +6642,7 @@
       <c r="D17"/>
       <c r="E17"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>175</v>
       </c>
@@ -6668,7 +6659,7 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -6685,7 +6676,7 @@
         <v>63.89</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -6702,7 +6693,7 @@
         <v>85.42</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -6719,7 +6710,7 @@
         <v>11.46</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>175</v>
       </c>
@@ -6732,7 +6723,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>175</v>
       </c>
@@ -6745,7 +6736,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>175</v>
       </c>
@@ -6758,7 +6749,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>175</v>
       </c>
@@ -6771,7 +6762,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>175</v>
       </c>
@@ -6784,7 +6775,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -6797,7 +6788,7 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>175</v>
       </c>
@@ -6810,7 +6801,7 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>175</v>
       </c>
@@ -6823,7 +6814,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>175</v>
       </c>
@@ -6836,7 +6827,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>175</v>
       </c>
@@ -6849,7 +6840,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -6862,7 +6853,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -6875,7 +6866,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>175</v>
       </c>
@@ -6888,7 +6879,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -6901,7 +6892,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>175</v>
       </c>
@@ -6914,7 +6905,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>175</v>
       </c>
@@ -6948,7 +6939,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -6961,10 +6952,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6981,7 +6971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -6994,7 +6984,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -7007,7 +6997,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -7020,7 +7010,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -7033,7 +7023,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -7046,7 +7036,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -7059,7 +7049,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -7072,7 +7062,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -7085,7 +7075,7 @@
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -7098,7 +7088,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7111,7 +7101,7 @@
       <c r="D11"/>
       <c r="E11"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -7128,7 +7118,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -7141,7 +7131,7 @@
       <c r="D13"/>
       <c r="E13"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -7158,7 +7148,7 @@
         <v>50.0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -7175,7 +7165,7 @@
         <v>34.38</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -7188,7 +7178,7 @@
       <c r="D16"/>
       <c r="E16"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -7205,7 +7195,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>176</v>
       </c>
@@ -7222,7 +7212,7 @@
         <v>9.72</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -7239,7 +7229,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -7252,7 +7242,7 @@
       <c r="D20"/>
       <c r="E20"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -7269,7 +7259,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -7286,7 +7276,7 @@
         <v>77.08</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -7303,7 +7293,7 @@
         <v>20.32</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -7320,7 +7310,7 @@
         <v>35.0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -7337,7 +7327,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -7354,7 +7344,7 @@
         <v>35.42</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -7371,7 +7361,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -7388,7 +7378,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -7405,7 +7395,7 @@
         <v>55.36</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -7422,7 +7412,7 @@
         <v>42.71</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -7435,7 +7425,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -7448,7 +7438,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -7461,7 +7451,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -7474,7 +7464,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -7487,7 +7477,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -7500,7 +7490,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -7513,7 +7503,7 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>176</v>
       </c>
@@ -7526,7 +7516,7 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>176</v>
       </c>
@@ -7539,7 +7529,7 @@
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>176</v>
       </c>
@@ -7552,7 +7542,7 @@
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>176</v>
       </c>
@@ -7565,7 +7555,7 @@
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>176</v>
       </c>
@@ -7578,7 +7568,7 @@
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -7591,7 +7581,7 @@
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>176</v>
       </c>
@@ -7604,7 +7594,7 @@
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -7617,7 +7607,7 @@
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -7630,7 +7620,7 @@
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>176</v>
       </c>
@@ -7643,7 +7633,7 @@
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -7656,7 +7646,7 @@
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -7669,7 +7659,7 @@
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -7682,7 +7672,7 @@
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>176</v>
       </c>
@@ -7695,7 +7685,7 @@
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -7708,7 +7698,7 @@
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>176</v>
       </c>
@@ -7742,7 +7732,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -7755,10 +7745,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7775,7 +7764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -7788,7 +7777,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>176</v>
       </c>
@@ -7801,7 +7790,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -7814,7 +7803,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -7827,7 +7816,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>176</v>
       </c>
@@ -7840,7 +7829,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -7853,7 +7842,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>176</v>
       </c>
@@ -7866,7 +7855,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -7883,7 +7872,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -7900,7 +7889,7 @@
         <v>50.0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -7917,7 +7906,7 @@
         <v>34.38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -7934,7 +7923,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -7951,7 +7940,7 @@
         <v>9.72</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>176</v>
       </c>
@@ -7968,7 +7957,7 @@
         <v>47.32</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>176</v>
       </c>
@@ -7985,7 +7974,7 @@
         <v>57.15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -8002,7 +7991,7 @@
         <v>77.08</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>176</v>
       </c>
@@ -8019,7 +8008,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>176</v>
       </c>
@@ -8036,7 +8025,7 @@
         <v>17.71</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>176</v>
       </c>
@@ -8053,7 +8042,7 @@
         <v>14.29</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -8070,7 +8059,7 @@
         <v>27.68</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -8087,7 +8076,7 @@
         <v>42.71</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>176</v>
       </c>
@@ -8100,7 +8089,7 @@
       <c r="D22"/>
       <c r="E22"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>176</v>
       </c>
@@ -8113,7 +8102,7 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>176</v>
       </c>
@@ -8126,7 +8115,7 @@
       <c r="D24"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>176</v>
       </c>
@@ -8139,7 +8128,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -8152,7 +8141,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>176</v>
       </c>
@@ -8165,7 +8154,7 @@
       <c r="D27"/>
       <c r="E27"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -8178,7 +8167,7 @@
       <c r="D28"/>
       <c r="E28"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -8191,7 +8180,7 @@
       <c r="D29"/>
       <c r="E29"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -8204,7 +8193,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -8217,7 +8206,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>176</v>
       </c>
@@ -8230,7 +8219,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>176</v>
       </c>
@@ -8243,7 +8232,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -8256,7 +8245,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>176</v>
       </c>
@@ -8269,7 +8258,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>176</v>
       </c>
@@ -8282,7 +8271,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>176</v>
       </c>
@@ -8316,7 +8305,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -8329,10 +8318,9 @@
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="4" max="4" width="20" customWidth="true" style="0"/>
     <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8349,7 +8337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>177</v>
       </c>
@@ -8362,7 +8350,7 @@
       <c r="D2"/>
       <c r="E2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -8375,7 +8363,7 @@
       <c r="D3"/>
       <c r="E3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -8388,7 +8376,7 @@
       <c r="D4"/>
       <c r="E4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -8401,7 +8389,7 @@
       <c r="D5"/>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -8414,7 +8402,7 @@
       <c r="D6"/>
       <c r="E6"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>177</v>
       </c>
@@ -8427,7 +8415,7 @@
       <c r="D7"/>
       <c r="E7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -8440,7 +8428,7 @@
       <c r="D8"/>
       <c r="E8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>177</v>
       </c>
@@ -8453,7 +8441,7 @@
       <c r="D9"/>
       <c r="E9"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>177</v>
       </c>
@@ -8466,7 +8454,7 @@
       <c r="D10"/>
       <c r="E10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>177</v>
       </c>
@@ -8483,7 +8471,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -8500,7 +8488,7 @@
         <v>52.09</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -8517,7 +8505,7 @@
         <v>69.64</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>177</v>
       </c>
@@ -8530,7 +8518,7 @@
       <c r="D14"/>
       <c r="E14"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>177</v>
       </c>
@@ -8547,7 +8535,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>177</v>
       </c>
@@ -8564,7 +8552,7 @@
         <v>42.86</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>177</v>
       </c>
@@ -8581,7 +8569,7 @@
         <v>46.43</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -8598,7 +8586,7 @@
         <v>39.29</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>177</v>
       </c>
@@ -8615,7 +8603,7 @@
         <v>57.14</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>177</v>
       </c>
@@ -8632,7 +8620,7 @@
         <v>172.92</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -8645,7 +8633,7 @@
       <c r="D21"/>
       <c r="E21"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>177</v>
       </c>
@@ -8662,7 +8650,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>177</v>
       </c>
@@ -8679,7 +8667,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>177</v>
       </c>
@@ -8696,7 +8684,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -8709,7 +8697,7 @@
       <c r="D25"/>
       <c r="E25"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>177</v>
       </c>
@@ -8722,7 +8710,7 @@
       <c r="D26"/>
       <c r="E26"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>177</v>
       </c>
@@ -8739,7 +8727,7 @@
         <v>50.0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>177</v>
       </c>
@@ -8756,7 +8744,7 @@
         <v>70.84</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -8773,7 +8761,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>177</v>
       </c>
@@ -8786,7 +8774,7 @@
       <c r="D30"/>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -8799,7 +8787,7 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>177</v>
       </c>
@@ -8812,7 +8800,7 @@
       <c r="D32"/>
       <c r="E32"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>177</v>
       </c>
@@ -8825,7 +8813,7 @@
       <c r="D33"/>
       <c r="E33"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>177</v>
       </c>
@@ -8838,7 +8826,7 @@
       <c r="D34"/>
       <c r="E34"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -8851,7 +8839,7 @@
       <c r="D35"/>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>177</v>
       </c>
@@ -8864,7 +8852,7 @@
       <c r="D36"/>
       <c r="E36"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>177</v>
       </c>
@@ -8877,7 +8865,7 @@
       <c r="D37"/>
       <c r="E37"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>177</v>
       </c>
@@ -8890,7 +8878,7 @@
       <c r="D38"/>
       <c r="E38"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>177</v>
       </c>
@@ -8903,7 +8891,7 @@
       <c r="D39"/>
       <c r="E39"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>177</v>
       </c>
@@ -8916,7 +8904,7 @@
       <c r="D40"/>
       <c r="E40"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>177</v>
       </c>
@@ -8929,7 +8917,7 @@
       <c r="D41"/>
       <c r="E41"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>177</v>
       </c>
@@ -8942,7 +8930,7 @@
       <c r="D42"/>
       <c r="E42"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>177</v>
       </c>
@@ -8955,7 +8943,7 @@
       <c r="D43"/>
       <c r="E43"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -8968,7 +8956,7 @@
       <c r="D44"/>
       <c r="E44"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>177</v>
       </c>
@@ -8981,7 +8969,7 @@
       <c r="D45"/>
       <c r="E45"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -8994,7 +8982,7 @@
       <c r="D46"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -9007,7 +8995,7 @@
       <c r="D47"/>
       <c r="E47"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -9020,7 +9008,7 @@
       <c r="D48"/>
       <c r="E48"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -9033,7 +9021,7 @@
       <c r="D49"/>
       <c r="E49"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>177</v>
       </c>
@@ -9046,7 +9034,7 @@
       <c r="D50"/>
       <c r="E50"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>177</v>
       </c>
@@ -9059,7 +9047,7 @@
       <c r="D51"/>
       <c r="E51"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>177</v>
       </c>
@@ -9072,7 +9060,7 @@
       <c r="D52"/>
       <c r="E52"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>177</v>
       </c>

--- a/fichierInter2.xlsx
+++ b/fichierInter2.xlsx
@@ -7,10 +7,18 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Non connu Semaine" sheetId="1" r:id="rId4"/>
-    <sheet name="2020-Non connu Décade" sheetId="2" r:id="rId5"/>
-    <sheet name="2020-Assez sechant  Semaine" sheetId="3" r:id="rId6"/>
-    <sheet name="2020-Assez sechant  Décade" sheetId="4" r:id="rId7"/>
+    <sheet name="2020-Normal Semaine" sheetId="1" r:id="rId4"/>
+    <sheet name="2020-Normal Décade" sheetId="2" r:id="rId5"/>
+    <sheet name="2021-Normal Semaine" sheetId="3" r:id="rId6"/>
+    <sheet name="2021-Normal Décade" sheetId="4" r:id="rId7"/>
+    <sheet name="2020-Defavorable Semaine" sheetId="5" r:id="rId8"/>
+    <sheet name="2020-Defavorable Décade" sheetId="6" r:id="rId9"/>
+    <sheet name="2021-Defavorable Semaine" sheetId="7" r:id="rId10"/>
+    <sheet name="2021-Defavorable Décade" sheetId="8" r:id="rId11"/>
+    <sheet name="2020-Favorable Semaine" sheetId="9" r:id="rId12"/>
+    <sheet name="2020-Favorable Décade" sheetId="10" r:id="rId13"/>
+    <sheet name="2021-Favorable Semaine" sheetId="11" r:id="rId14"/>
+    <sheet name="2021-Favorable Décade" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -18,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>Caractéristique</t>
   </si>
@@ -35,7 +43,7 @@
     <t>Date début semaine</t>
   </si>
   <si>
-    <t>Type de sol_2020-Non connu</t>
+    <t>Potentiel de pousse_2020-Normal</t>
   </si>
   <si>
     <t>07/01/2020</t>
@@ -293,7 +301,268 @@
     <t>25/12/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Type de sol_2020-Assez sechant </t>
+    <t>Potentiel de pousse_2021-Normal</t>
+  </si>
+  <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>14/01/2021</t>
+  </si>
+  <si>
+    <t>21/01/2021</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
+  </si>
+  <si>
+    <t>04/02/2021</t>
+  </si>
+  <si>
+    <t>11/02/2021</t>
+  </si>
+  <si>
+    <t>18/02/2021</t>
+  </si>
+  <si>
+    <t>25/02/2021</t>
+  </si>
+  <si>
+    <t>04/03/2021</t>
+  </si>
+  <si>
+    <t>11/03/2021</t>
+  </si>
+  <si>
+    <t>18/03/2021</t>
+  </si>
+  <si>
+    <t>25/03/2021</t>
+  </si>
+  <si>
+    <t>01/04/2021</t>
+  </si>
+  <si>
+    <t>08/04/2021</t>
+  </si>
+  <si>
+    <t>15/04/2021</t>
+  </si>
+  <si>
+    <t>22/04/2021</t>
+  </si>
+  <si>
+    <t>29/04/2021</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>13/05/2021</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
+  </si>
+  <si>
+    <t>27/05/2021</t>
+  </si>
+  <si>
+    <t>03/06/2021</t>
+  </si>
+  <si>
+    <t>10/06/2021</t>
+  </si>
+  <si>
+    <t>17/06/2021</t>
+  </si>
+  <si>
+    <t>24/06/2021</t>
+  </si>
+  <si>
+    <t>01/07/2021</t>
+  </si>
+  <si>
+    <t>08/07/2021</t>
+  </si>
+  <si>
+    <t>15/07/2021</t>
+  </si>
+  <si>
+    <t>22/07/2021</t>
+  </si>
+  <si>
+    <t>29/07/2021</t>
+  </si>
+  <si>
+    <t>05/08/2021</t>
+  </si>
+  <si>
+    <t>12/08/2021</t>
+  </si>
+  <si>
+    <t>19/08/2021</t>
+  </si>
+  <si>
+    <t>26/08/2021</t>
+  </si>
+  <si>
+    <t>02/09/2021</t>
+  </si>
+  <si>
+    <t>09/09/2021</t>
+  </si>
+  <si>
+    <t>16/09/2021</t>
+  </si>
+  <si>
+    <t>23/09/2021</t>
+  </si>
+  <si>
+    <t>30/09/2021</t>
+  </si>
+  <si>
+    <t>07/10/2021</t>
+  </si>
+  <si>
+    <t>14/10/2021</t>
+  </si>
+  <si>
+    <t>21/10/2021</t>
+  </si>
+  <si>
+    <t>28/10/2021</t>
+  </si>
+  <si>
+    <t>04/11/2021</t>
+  </si>
+  <si>
+    <t>11/11/2021</t>
+  </si>
+  <si>
+    <t>18/11/2021</t>
+  </si>
+  <si>
+    <t>25/11/2021</t>
+  </si>
+  <si>
+    <t>02/12/2021</t>
+  </si>
+  <si>
+    <t>09/12/2021</t>
+  </si>
+  <si>
+    <t>16/12/2021</t>
+  </si>
+  <si>
+    <t>23/12/2021</t>
+  </si>
+  <si>
+    <t>30/12/2021</t>
+  </si>
+  <si>
+    <t>10/01/2021</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>30/01/2021</t>
+  </si>
+  <si>
+    <t>09/02/2021</t>
+  </si>
+  <si>
+    <t>19/02/2021</t>
+  </si>
+  <si>
+    <t>01/03/2021</t>
+  </si>
+  <si>
+    <t>21/03/2021</t>
+  </si>
+  <si>
+    <t>31/03/2021</t>
+  </si>
+  <si>
+    <t>10/04/2021</t>
+  </si>
+  <si>
+    <t>20/04/2021</t>
+  </si>
+  <si>
+    <t>30/04/2021</t>
+  </si>
+  <si>
+    <t>10/05/2021</t>
+  </si>
+  <si>
+    <t>30/05/2021</t>
+  </si>
+  <si>
+    <t>09/06/2021</t>
+  </si>
+  <si>
+    <t>19/06/2021</t>
+  </si>
+  <si>
+    <t>29/06/2021</t>
+  </si>
+  <si>
+    <t>09/07/2021</t>
+  </si>
+  <si>
+    <t>19/07/2021</t>
+  </si>
+  <si>
+    <t>08/08/2021</t>
+  </si>
+  <si>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>28/08/2021</t>
+  </si>
+  <si>
+    <t>07/09/2021</t>
+  </si>
+  <si>
+    <t>17/09/2021</t>
+  </si>
+  <si>
+    <t>27/09/2021</t>
+  </si>
+  <si>
+    <t>17/10/2021</t>
+  </si>
+  <si>
+    <t>27/10/2021</t>
+  </si>
+  <si>
+    <t>06/11/2021</t>
+  </si>
+  <si>
+    <t>16/11/2021</t>
+  </si>
+  <si>
+    <t>26/11/2021</t>
+  </si>
+  <si>
+    <t>06/12/2021</t>
+  </si>
+  <si>
+    <t>26/12/2021</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2020-Defavorable</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2021-Defavorable</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2020-Favorable</t>
+  </si>
+  <si>
+    <t>Potentiel de pousse_2021-Favorable</t>
   </si>
 </sst>
 </file>
@@ -793,10 +1062,10 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>2.92</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -810,10 +1079,10 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12">
-        <v>32.74</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -827,10 +1096,10 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>50.97</v>
+        <v>44.39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -844,10 +1113,10 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>39.68</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -861,10 +1130,10 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>27.27</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -878,10 +1147,10 @@
         <v>20</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>53.57</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -895,10 +1164,10 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>44.84</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -912,10 +1181,10 @@
         <v>22</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>28.77</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -929,10 +1198,10 @@
         <v>23</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>47.22</v>
+        <v>43.45</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -946,10 +1215,10 @@
         <v>24</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>78.75</v>
+        <v>69.45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -963,10 +1232,10 @@
         <v>25</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>43.52</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -980,7 +1249,7 @@
         <v>26</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0.0</v>
@@ -997,10 +1266,10 @@
         <v>27</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>23.96</v>
+        <v>35.42</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1014,10 +1283,10 @@
         <v>28</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>9.37</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1031,10 +1300,10 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>11.73</v>
+        <v>11.91</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1048,10 +1317,10 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>21.53</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1065,10 +1334,10 @@
         <v>31</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27">
-        <v>57.5</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1082,10 +1351,10 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>56.44</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1099,10 +1368,10 @@
         <v>33</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>24.11</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1116,7 +1385,7 @@
         <v>34</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0.0</v>
@@ -1420,6 +1689,1909 @@
       </c>
       <c r="D53"/>
       <c r="E53"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>60.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>46.43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>115.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>21.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>26.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>53.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>15.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>40.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>30.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -1563,10 +3735,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>2.92</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1580,10 +3752,10 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>41.86</v>
+        <v>36.36</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1597,10 +3769,10 @@
         <v>67</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>39.68</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1614,10 +3786,10 @@
         <v>68</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>40.42</v>
+        <v>46.53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1631,10 +3803,10 @@
         <v>69</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>44.84</v>
+        <v>44.05</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1648,10 +3820,10 @@
         <v>70</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>28.77</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1665,10 +3837,10 @@
         <v>71</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E14">
-        <v>62.99</v>
+        <v>56.45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1682,10 +3854,10 @@
         <v>25</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>43.52</v>
+        <v>47.22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1699,10 +3871,10 @@
         <v>72</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>11.98</v>
+        <v>17.71</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1716,10 +3888,10 @@
         <v>73</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>9.37</v>
+        <v>11.72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1733,10 +3905,10 @@
         <v>74</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>16.63</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1750,10 +3922,10 @@
         <v>75</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>57.5</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1767,10 +3939,10 @@
         <v>76</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>56.44</v>
+        <v>50.52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1784,10 +3956,10 @@
         <v>77</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>12.06</v>
+        <v>8.86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2059,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2072,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -2085,7 +4257,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2098,7 +4270,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -2111,7 +4283,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2124,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -2137,7 +4309,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
@@ -2150,7 +4322,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -2163,7 +4335,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
@@ -2176,14 +4348,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>6.25</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -2193,13 +4361,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>12.5</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2210,14 +4378,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>33.93</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
@@ -2227,13 +4391,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>19.64</v>
+        <v>42.41</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2244,10 +4408,14 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>45.09</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -2257,10 +4425,14 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16"/>
-      <c r="E16"/>
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>10.12</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
@@ -2270,13 +4442,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17">
-        <v>1.79</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2287,13 +4459,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E18">
-        <v>32.15</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2304,13 +4476,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>10.71</v>
+        <v>57.14</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2321,13 +4493,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E20">
-        <v>45.83</v>
+        <v>47.02</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2338,13 +4510,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>44.44</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2355,13 +4527,13 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>0.0</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2372,13 +4544,13 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>16.67</v>
+        <v>77.35</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2389,10 +4561,14 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24"/>
-      <c r="E24"/>
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
@@ -2402,13 +4578,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>3.57</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2419,13 +4595,13 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E26">
-        <v>33.33</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2436,10 +4612,14 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27"/>
-      <c r="E27"/>
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>51.19</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
@@ -2449,13 +4629,13 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>95.83</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2466,10 +4646,14 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29"/>
-      <c r="E29"/>
+        <v>119</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>26.02</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
@@ -2479,13 +4663,13 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E30">
-        <v>0.0</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2496,7 +4680,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -2509,7 +4693,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -2522,7 +4706,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -2535,7 +4719,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -2548,7 +4732,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -2561,7 +4745,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -2574,7 +4758,7 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -2587,7 +4771,7 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -2600,7 +4784,7 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -2613,7 +4797,7 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -2626,7 +4810,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -2639,7 +4823,7 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -2652,7 +4836,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
@@ -2665,7 +4849,7 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="D44"/>
       <c r="E44"/>
@@ -2678,7 +4862,7 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
@@ -2691,7 +4875,7 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
@@ -2704,7 +4888,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2717,7 +4901,7 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
@@ -2730,7 +4914,7 @@
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -2743,7 +4927,7 @@
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -2756,7 +4940,7 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -2769,7 +4953,7 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
@@ -2782,7 +4966,7 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="D53"/>
       <c r="E53"/>
@@ -2848,7 +5032,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
@@ -2861,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
@@ -2874,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
@@ -2887,7 +5071,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
@@ -2900,7 +5084,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D6"/>
       <c r="E6"/>
@@ -2913,7 +5097,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
@@ -2926,14 +5110,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>6.25</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -2943,13 +5123,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>23.22</v>
+        <v>20.14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2960,13 +5140,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>19.64</v>
+        <v>42.41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2977,10 +5157,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>27.61</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
@@ -2990,13 +5174,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>1.79</v>
+        <v>24.43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3007,13 +5191,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>32.15</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3024,13 +5208,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>28.27</v>
+        <v>52.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3041,13 +5225,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>44.44</v>
+        <v>30.95</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3058,13 +5242,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>8.34</v>
+        <v>77.78</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3075,10 +5259,14 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17"/>
-      <c r="E17"/>
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>58.68</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
@@ -3088,13 +5276,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>18.45</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3105,10 +5293,14 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19"/>
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>51.19</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
@@ -3118,13 +5310,13 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>95.83</v>
+        <v>21.94</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3135,13 +5327,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>0.0</v>
+        <v>26.04</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3152,7 +5344,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -3165,7 +5357,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -3178,7 +5370,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -3191,7 +5383,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -3204,7 +5396,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -3217,7 +5409,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
@@ -3230,7 +5422,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D28"/>
       <c r="E28"/>
@@ -3243,7 +5435,7 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -3256,7 +5448,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -3269,7 +5461,7 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
@@ -3282,7 +5474,7 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D32"/>
       <c r="E32"/>
@@ -3295,7 +5487,7 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="D33"/>
       <c r="E33"/>
@@ -3308,7 +5500,7 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -3321,7 +5513,7 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
@@ -3334,7 +5526,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="D36"/>
       <c r="E36"/>
@@ -3347,10 +5539,3539 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>44.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>39.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>85.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>22.92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>175</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>175</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>16.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>21.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>34.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>15.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>63.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>85.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>175</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>34.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>57.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>20.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>35.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>42.71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>176</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>176</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>34.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>9.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>47.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>57.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>77.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>17.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>27.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>42.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+  </sheetData>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="20" customWidth="true" style="0"/>
+    <col min="5" max="5" width="20" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>52.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>177</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>46.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>39.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>172.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53"/>
+      <c r="E53"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
